--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Johana Matute.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Johana Matute.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">30/11/2024 17:33</t>
   </si>
   <si>
-    <t xml:space="preserve">Carlos Arevalo</t>
+    <t xml:space="preserve">Carlitos Arevalo</t>
   </si>
   <si>
     <t xml:space="preserve">Pedicure Tradicional Express</t>
@@ -434,10 +434,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4">
@@ -474,10 +474,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="5">
